--- a/templates/项目信息试验模板2.xlsx
+++ b/templates/项目信息试验模板2.xlsx
@@ -426,7 +426,7 @@
         <v>采样数量/天</v>
       </c>
       <c r="H1" t="str">
-        <v>采样天数</v>
+        <v>采样日程</v>
       </c>
     </row>
     <row r="2">
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="4">
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="11">
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="14">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="H15" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="16">
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="H18" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="19">
@@ -894,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="20">
@@ -946,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="22">
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="24">
@@ -1050,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="26">
@@ -1128,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="29">
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="H31" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="32">
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="H33" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="34">
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="35">
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="38">
@@ -1388,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="H38" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="39">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="H39" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="40">
@@ -1596,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="H46" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="47">
@@ -1622,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="H47" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="48">
@@ -1648,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="H48" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="49">
@@ -1674,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="H49" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="50">
@@ -1700,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="str">
-        <v>3</v>
+        <v>1|2|3</v>
       </c>
     </row>
     <row r="51">
@@ -1763,7 +1763,7 @@
         <v>采样数量/天</v>
       </c>
       <c r="G1" t="str">
-        <v>采样天数</v>
+        <v>采样日程</v>
       </c>
     </row>
     <row r="2">
